--- a/Team-Data/2010-11/3-24-2010-11.xlsx
+++ b/Team-Data/2010-11/3-24-2010-11.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
         <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.549</v>
+        <v>0.556</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J2" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L2" t="n">
         <v>6.4</v>
@@ -696,22 +763,22 @@
         <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O2" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P2" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
         <v>9.4</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T2" t="n">
         <v>39.5</v>
@@ -732,28 +799,28 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
       </c>
       <c r="AE2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF2" t="n">
         <v>12</v>
       </c>
-      <c r="AF2" t="n">
-        <v>13</v>
-      </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
@@ -765,16 +832,16 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL2" t="n">
         <v>13</v>
       </c>
-      <c r="AL2" t="n">
-        <v>14</v>
-      </c>
       <c r="AM2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
         <v>29</v>
@@ -783,7 +850,7 @@
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
@@ -795,19 +862,19 @@
         <v>26</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
         <v>29</v>
       </c>
       <c r="AX2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -816,7 +883,7 @@
         <v>30</v>
       </c>
       <c r="BB2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.721</v>
+        <v>0.714</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J3" t="n">
-        <v>76.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="K3" t="n">
         <v>0.487</v>
@@ -878,7 +945,7 @@
         <v>13.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O3" t="n">
         <v>17.7</v>
@@ -887,13 +954,13 @@
         <v>23</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
         <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
         <v>39</v>
@@ -902,13 +969,13 @@
         <v>23.8</v>
       </c>
       <c r="V3" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y3" t="n">
         <v>4.4</v>
@@ -920,13 +987,13 @@
         <v>20.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.3</v>
+        <v>97</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>4</v>
@@ -935,13 +1002,13 @@
         <v>3</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -956,16 +1023,16 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -977,22 +1044,22 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
         <v>23</v>
@@ -1001,7 +1068,7 @@
         <v>21</v>
       </c>
       <c r="BC3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.406</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
@@ -1048,10 +1115,10 @@
         <v>34.6</v>
       </c>
       <c r="J4" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
@@ -1060,7 +1127,7 @@
         <v>15.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.328</v>
+        <v>0.329</v>
       </c>
       <c r="O4" t="n">
         <v>18.8</v>
@@ -1069,22 +1136,22 @@
         <v>25</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.751</v>
+        <v>0.754</v>
       </c>
       <c r="R4" t="n">
         <v>10.7</v>
       </c>
       <c r="S4" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T4" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U4" t="n">
         <v>20.5</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W4" t="n">
         <v>6.4</v>
@@ -1093,22 +1160,22 @@
         <v>5.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z4" t="n">
         <v>20.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.1</v>
+        <v>-4.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1132,13 +1199,13 @@
         <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
@@ -1153,22 +1220,22 @@
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT4" t="n">
         <v>18</v>
       </c>
       <c r="AU4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,13 +1244,13 @@
         <v>9</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
         <v>51</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>0.739</v>
+        <v>0.729</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K5" t="n">
         <v>0.46</v>
@@ -1239,19 +1306,19 @@
         <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P5" t="n">
         <v>24.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
@@ -1260,7 +1327,7 @@
         <v>32.3</v>
       </c>
       <c r="T5" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U5" t="n">
         <v>22</v>
@@ -1278,19 +1345,19 @@
         <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>2</v>
@@ -1302,19 +1369,19 @@
         <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>17</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>16</v>
       </c>
-      <c r="AK5" t="n">
-        <v>15</v>
-      </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
@@ -1323,7 +1390,7 @@
         <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP5" t="n">
         <v>13</v>
@@ -1332,10 +1399,10 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT5" t="n">
         <v>2</v>
@@ -1344,25 +1411,25 @@
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>10</v>
       </c>
       <c r="BA5" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB5" t="n">
         <v>20</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>19</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>57</v>
       </c>
       <c r="G6" t="n">
-        <v>0.174</v>
+        <v>0.186</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
@@ -1421,16 +1488,16 @@
         <v>6.2</v>
       </c>
       <c r="M6" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
         <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
         <v>0.743</v>
@@ -1445,7 +1512,7 @@
         <v>40.3</v>
       </c>
       <c r="U6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V6" t="n">
         <v>14.4</v>
@@ -1463,16 +1530,16 @@
         <v>19.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB6" t="n">
         <v>94.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-10.7</v>
+        <v>-10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>30</v>
@@ -1484,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>28</v>
@@ -1502,10 +1569,10 @@
         <v>14</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>8</v>
@@ -1526,7 +1593,7 @@
         <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW6" t="n">
         <v>23</v>
@@ -1544,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="BB6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -1594,25 +1661,25 @@
         <v>37.4</v>
       </c>
       <c r="J7" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M7" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="N7" t="n">
         <v>0.371</v>
       </c>
       <c r="O7" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P7" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
         <v>0.784</v>
@@ -1627,7 +1694,7 @@
         <v>41.2</v>
       </c>
       <c r="U7" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V7" t="n">
         <v>13.7</v>
@@ -1651,13 +1718,13 @@
         <v>100.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>5</v>
@@ -1690,7 +1757,7 @@
         <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ7" t="n">
         <v>7</v>
@@ -1726,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="n">
         <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.592</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1779,7 +1846,7 @@
         <v>80.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L8" t="n">
         <v>8.1</v>
@@ -1788,16 +1855,16 @@
         <v>20.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.391</v>
+        <v>0.39</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R8" t="n">
         <v>9.5</v>
@@ -1806,7 +1873,7 @@
         <v>32.3</v>
       </c>
       <c r="T8" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U8" t="n">
         <v>21.9</v>
@@ -1818,22 +1885,22 @@
         <v>7.2</v>
       </c>
       <c r="X8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y8" t="n">
         <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1851,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
@@ -1866,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1878,10 +1945,10 @@
         <v>10</v>
       </c>
       <c r="AR8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
@@ -1893,16 +1960,16 @@
         <v>14</v>
       </c>
       <c r="AW8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
         <v>28</v>
       </c>
       <c r="AZ8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" t="n">
-        <v>0.357</v>
+        <v>0.352</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
@@ -1970,16 +2037,16 @@
         <v>15.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O9" t="n">
         <v>16.4</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.735</v>
+        <v>0.731</v>
       </c>
       <c r="R9" t="n">
         <v>11.3</v>
@@ -1994,7 +2061,7 @@
         <v>20.9</v>
       </c>
       <c r="V9" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
@@ -2018,7 +2085,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2033,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="AI9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
         <v>14</v>
@@ -2042,7 +2109,7 @@
         <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>21</v>
@@ -2054,16 +2121,16 @@
         <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
         <v>30</v>
@@ -2087,13 +2154,13 @@
         <v>7</v>
       </c>
       <c r="BA9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB9" t="n">
         <v>24</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
         <v>42</v>
       </c>
       <c r="G10" t="n">
-        <v>0.408</v>
+        <v>0.417</v>
       </c>
       <c r="H10" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J10" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L10" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="N10" t="n">
         <v>0.39</v>
       </c>
       <c r="O10" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R10" t="n">
         <v>11.6</v>
@@ -2173,7 +2240,7 @@
         <v>40.2</v>
       </c>
       <c r="U10" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2188,16 +2255,16 @@
         <v>4.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA10" t="n">
         <v>18.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.3</v>
+        <v>102.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2206,7 +2273,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
@@ -2215,13 +2282,13 @@
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>5</v>
@@ -2230,7 +2297,7 @@
         <v>6</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO10" t="n">
         <v>30</v>
@@ -2239,10 +2306,10 @@
         <v>30</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>27</v>
@@ -2251,10 +2318,10 @@
         <v>25</v>
       </c>
       <c r="AU10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
@@ -2263,10 +2330,10 @@
         <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
         <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="n">
-        <v>0.543</v>
+        <v>0.528</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,46 +2389,46 @@
         <v>38.5</v>
       </c>
       <c r="J11" t="n">
-        <v>84.59999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N11" t="n">
         <v>0.367</v>
       </c>
       <c r="O11" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="P11" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.794</v>
+        <v>0.797</v>
       </c>
       <c r="R11" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S11" t="n">
         <v>30.9</v>
       </c>
       <c r="T11" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U11" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V11" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X11" t="n">
         <v>4.7</v>
@@ -2370,37 +2437,37 @@
         <v>5.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.4</v>
+        <v>105.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -2412,19 +2479,19 @@
         <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP11" t="n">
         <v>5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>7</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>13</v>
@@ -2442,22 +2509,22 @@
         <v>16</v>
       </c>
       <c r="AX11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
         <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA11" t="n">
         <v>7</v>
       </c>
       <c r="BB11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
         <v>32</v>
       </c>
       <c r="F12" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>0.451</v>
+        <v>0.444</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J12" t="n">
         <v>82.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
         <v>7.2</v>
@@ -2516,31 +2583,31 @@
         <v>20.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O12" t="n">
         <v>19.5</v>
       </c>
       <c r="P12" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.788</v>
+        <v>0.786</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>19.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W12" t="n">
         <v>7.1</v>
@@ -2552,16 +2619,16 @@
         <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
         <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2618,7 +2685,7 @@
         <v>29</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
         <v>21</v>
@@ -2627,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>22</v>
@@ -2636,10 +2703,10 @@
         <v>8</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="n">
-        <v>0.394</v>
+        <v>0.389</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2698,7 +2765,7 @@
         <v>18.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O13" t="n">
         <v>19.2</v>
@@ -2707,19 +2774,19 @@
         <v>27</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R13" t="n">
         <v>11.6</v>
       </c>
       <c r="S13" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T13" t="n">
         <v>42</v>
       </c>
       <c r="U13" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V13" t="n">
         <v>16.2</v>
@@ -2731,7 +2798,7 @@
         <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z13" t="n">
         <v>21.1</v>
@@ -2740,10 +2807,10 @@
         <v>22.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -2776,7 +2843,7 @@
         <v>11</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
         <v>8</v>
@@ -2788,16 +2855,16 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>29</v>
@@ -2806,16 +2873,16 @@
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -2850,37 +2917,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.714</v>
+        <v>0.718</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L14" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
         <v>18.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O14" t="n">
         <v>18.6</v>
@@ -2889,13 +2956,13 @@
         <v>23.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R14" t="n">
         <v>12.2</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
         <v>43.9</v>
@@ -2904,43 +2971,43 @@
         <v>22.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W14" t="n">
         <v>7.4</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="n">
         <v>3</v>
       </c>
-      <c r="AF14" t="n">
-        <v>4</v>
-      </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
         <v>6</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>13</v>
@@ -2970,7 +3037,7 @@
         <v>6</v>
       </c>
       <c r="AR14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
         <v>9</v>
@@ -2997,10 +3064,10 @@
         <v>2</v>
       </c>
       <c r="BA14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
         <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
@@ -3050,7 +3117,7 @@
         <v>39</v>
       </c>
       <c r="J15" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.468</v>
@@ -3059,10 +3126,10 @@
         <v>3.7</v>
       </c>
       <c r="M15" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.328</v>
+        <v>0.329</v>
       </c>
       <c r="O15" t="n">
         <v>18.2</v>
@@ -3083,22 +3150,22 @@
         <v>41</v>
       </c>
       <c r="U15" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V15" t="n">
         <v>13.9</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
         <v>21.3</v>
@@ -3107,19 +3174,19 @@
         <v>99.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
@@ -3140,16 +3207,16 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
         <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>7</v>
@@ -3161,7 +3228,7 @@
         <v>17</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>13</v>
@@ -3179,13 +3246,13 @@
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BB15" t="n">
         <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>0.696</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J16" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L16" t="n">
         <v>6.6</v>
@@ -3244,7 +3311,7 @@
         <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O16" t="n">
         <v>21.5</v>
@@ -3253,25 +3320,25 @@
         <v>27.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R16" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S16" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W16" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X16" t="n">
         <v>5.4</v>
@@ -3283,31 +3350,31 @@
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF16" t="n">
         <v>6</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>5</v>
       </c>
       <c r="AG16" t="n">
         <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3319,10 +3386,10 @@
         <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
@@ -3331,28 +3398,28 @@
         <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
         <v>28</v>
       </c>
       <c r="AV16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW16" t="n">
         <v>24</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
         <v>1</v>
@@ -3364,7 +3431,7 @@
         <v>5</v>
       </c>
       <c r="BB16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
         <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" t="n">
-        <v>0.406</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>34.1</v>
       </c>
       <c r="J17" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K17" t="n">
         <v>0.427</v>
@@ -3432,16 +3499,16 @@
         <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R17" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S17" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T17" t="n">
         <v>41.1</v>
@@ -3453,7 +3520,7 @@
         <v>13.6</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
         <v>4.9</v>
@@ -3462,10 +3529,10 @@
         <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB17" t="n">
         <v>91.40000000000001</v>
@@ -3474,7 +3541,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3504,13 +3571,13 @@
         <v>18</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ17" t="n">
         <v>23</v>
@@ -3519,7 +3586,7 @@
         <v>15</v>
       </c>
       <c r="AS17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT17" t="n">
         <v>16</v>
@@ -3531,25 +3598,25 @@
         <v>8</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>12</v>
       </c>
       <c r="AY17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ17" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA17" t="n">
         <v>15</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>30</v>
       </c>
       <c r="BC17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -3593,10 +3660,10 @@
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J18" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="K18" t="n">
         <v>0.438</v>
@@ -3611,10 +3678,10 @@
         <v>0.372</v>
       </c>
       <c r="O18" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P18" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0.767</v>
@@ -3626,7 +3693,7 @@
         <v>31.4</v>
       </c>
       <c r="T18" t="n">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="U18" t="n">
         <v>20.3</v>
@@ -3638,28 +3705,28 @@
         <v>7.3</v>
       </c>
       <c r="X18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y18" t="n">
         <v>5.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>101.1</v>
+        <v>101.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5.9</v>
+        <v>-5.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
         <v>29</v>
@@ -3668,10 +3735,10 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3713,7 +3780,7 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX18" t="n">
         <v>10</v>
@@ -3722,10 +3789,10 @@
         <v>24</v>
       </c>
       <c r="AZ18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
         <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.319</v>
+        <v>0.329</v>
       </c>
       <c r="H19" t="n">
         <v>48.9</v>
       </c>
       <c r="I19" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J19" t="n">
         <v>80.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O19" t="n">
         <v>18</v>
@@ -3799,25 +3866,25 @@
         <v>23.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R19" t="n">
         <v>11.3</v>
       </c>
       <c r="S19" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T19" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U19" t="n">
         <v>20.7</v>
       </c>
       <c r="V19" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W19" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X19" t="n">
         <v>4.9</v>
@@ -3826,19 +3893,19 @@
         <v>4.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA19" t="n">
         <v>20.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.6</v>
+        <v>-5.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3868,10 +3935,10 @@
         <v>20</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
         <v>18</v>
@@ -3880,10 +3947,10 @@
         <v>18</v>
       </c>
       <c r="AR19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT19" t="n">
         <v>14</v>
@@ -3892,7 +3959,7 @@
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW19" t="n">
         <v>30</v>
@@ -3904,7 +3971,7 @@
         <v>14</v>
       </c>
       <c r="AZ19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -3957,40 +4024,40 @@
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J20" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>5.4</v>
       </c>
       <c r="M20" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.359</v>
+        <v>0.355</v>
       </c>
       <c r="O20" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P20" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R20" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="T20" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U20" t="n">
         <v>20.5</v>
@@ -4002,28 +4069,28 @@
         <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC20" t="n">
         <v>1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>11</v>
@@ -4032,7 +4099,7 @@
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -4041,25 +4108,25 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>23</v>
       </c>
       <c r="AM20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
         <v>25</v>
@@ -4071,31 +4138,31 @@
         <v>20</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ20" t="n">
         <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="n">
         <v>36</v>
       </c>
       <c r="G21" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
@@ -4145,7 +4212,7 @@
         <v>83.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L21" t="n">
         <v>9.300000000000001</v>
@@ -4154,13 +4221,13 @@
         <v>24.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O21" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P21" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="n">
         <v>0.8070000000000001</v>
@@ -4169,46 +4236,46 @@
         <v>10.3</v>
       </c>
       <c r="S21" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V21" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W21" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
         <v>5.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z21" t="n">
         <v>21.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>18</v>
@@ -4220,7 +4287,7 @@
         <v>7</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK21" t="n">
         <v>18</v>
@@ -4235,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="AO21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP21" t="n">
         <v>9</v>
@@ -4262,7 +4329,7 @@
         <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY21" t="n">
         <v>11</v>
@@ -4271,7 +4338,7 @@
         <v>21</v>
       </c>
       <c r="BA21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
         <v>2</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" t="n">
         <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.652</v>
+        <v>0.657</v>
       </c>
       <c r="H22" t="n">
         <v>48.8</v>
@@ -4324,10 +4391,10 @@
         <v>37.2</v>
       </c>
       <c r="J22" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L22" t="n">
         <v>5.9</v>
@@ -4336,34 +4403,34 @@
         <v>16.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O22" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="P22" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.825</v>
+        <v>0.824</v>
       </c>
       <c r="R22" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S22" t="n">
         <v>31.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
         <v>13.8</v>
       </c>
       <c r="W22" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X22" t="n">
         <v>5.7</v>
@@ -4372,19 +4439,19 @@
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB22" t="n">
         <v>104.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
         <v>7</v>
@@ -4402,13 +4469,13 @@
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
         <v>19</v>
@@ -4432,10 +4499,10 @@
         <v>10</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
@@ -4447,10 +4514,10 @@
         <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" t="n">
         <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>0.634</v>
+        <v>0.639</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L23" t="n">
         <v>9.4</v>
@@ -4518,25 +4585,25 @@
         <v>25.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O23" t="n">
         <v>17.8</v>
       </c>
       <c r="P23" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.695</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U23" t="n">
         <v>20.1</v>
@@ -4557,13 +4624,13 @@
         <v>20.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4581,13 +4648,13 @@
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,10 +4678,10 @@
         <v>19</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU23" t="n">
         <v>25</v>
@@ -4623,10 +4690,10 @@
         <v>23</v>
       </c>
       <c r="AW23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY23" t="n">
         <v>3</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E24" t="n">
         <v>37</v>
       </c>
       <c r="F24" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>0.529</v>
+        <v>0.521</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
@@ -4691,7 +4758,7 @@
         <v>82.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L24" t="n">
         <v>5.5</v>
@@ -4703,10 +4770,10 @@
         <v>0.361</v>
       </c>
       <c r="O24" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P24" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="n">
         <v>0.771</v>
@@ -4718,13 +4785,13 @@
         <v>31.9</v>
       </c>
       <c r="T24" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U24" t="n">
         <v>22.6</v>
       </c>
       <c r="V24" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4742,19 +4809,19 @@
         <v>18.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -4769,22 +4836,22 @@
         <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
         <v>14</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ24" t="n">
         <v>12</v>
@@ -4796,31 +4863,31 @@
         <v>7</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY24" t="n">
         <v>9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
         <v>27</v>
       </c>
       <c r="BB24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.515</v>
+        <v>0.514</v>
       </c>
       <c r="H25" t="n">
         <v>48.9</v>
       </c>
       <c r="I25" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J25" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K25" t="n">
         <v>0.47</v>
@@ -4882,10 +4949,10 @@
         <v>23.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O25" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P25" t="n">
         <v>23.6</v>
@@ -4897,13 +4964,13 @@
         <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="V25" t="n">
         <v>14.3</v>
@@ -4918,25 +4985,25 @@
         <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
         <v>16</v>
@@ -4945,10 +5012,10 @@
         <v>2</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4963,7 +5030,7 @@
         <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>20</v>
@@ -4981,28 +5048,28 @@
         <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW25" t="n">
         <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -5034,64 +5101,64 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E26" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F26" t="n">
         <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.447</v>
       </c>
       <c r="L26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.343</v>
+        <v>0.346</v>
       </c>
       <c r="O26" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="P26" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="R26" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S26" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="T26" t="n">
-        <v>39.1</v>
+        <v>39.4</v>
       </c>
       <c r="U26" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V26" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X26" t="n">
         <v>4.6</v>
@@ -5100,22 +5167,22 @@
         <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA26" t="n">
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>10</v>
@@ -5130,34 +5197,34 @@
         <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>28</v>
@@ -5172,22 +5239,22 @@
         <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27" t="n">
         <v>52</v>
       </c>
       <c r="G27" t="n">
-        <v>0.246</v>
+        <v>0.257</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5237,22 +5304,22 @@
         <v>84.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
         <v>5.2</v>
       </c>
       <c r="M27" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N27" t="n">
         <v>0.341</v>
       </c>
       <c r="O27" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="P27" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.731</v>
@@ -5267,7 +5334,7 @@
         <v>43.4</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
         <v>16.2</v>
@@ -5285,16 +5352,16 @@
         <v>22.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.8</v>
+        <v>-5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5306,13 +5373,13 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>11</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
@@ -5321,19 +5388,19 @@
         <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AP27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5342,7 +5409,7 @@
         <v>19</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -5351,22 +5418,22 @@
         <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY27" t="n">
         <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E28" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>0.803</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5428,34 +5495,34 @@
         <v>21</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="O28" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R28" t="n">
         <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T28" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V28" t="n">
         <v>13.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>4.7</v>
@@ -5470,13 +5537,13 @@
         <v>20.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.4</v>
+        <v>103.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5491,10 +5558,10 @@
         <v>25</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5515,7 +5582,7 @@
         <v>14</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>23</v>
@@ -5524,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5533,7 +5600,7 @@
         <v>7</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AX28" t="n">
         <v>19</v>
@@ -5551,7 +5618,7 @@
         <v>6</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -5580,34 +5647,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G29" t="n">
-        <v>0.286</v>
+        <v>0.282</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J29" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L29" t="n">
         <v>4.3</v>
       </c>
       <c r="M29" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N29" t="n">
         <v>0.314</v>
@@ -5628,37 +5695,37 @@
         <v>28.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U29" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V29" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W29" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z29" t="n">
         <v>22.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>-5.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5670,7 +5737,7 @@
         <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI29" t="n">
         <v>4</v>
@@ -5679,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL29" t="n">
         <v>29</v>
@@ -5694,13 +5761,13 @@
         <v>19</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>19</v>
       </c>
       <c r="AR29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS29" t="n">
         <v>26</v>
@@ -5709,7 +5776,7 @@
         <v>24</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
         <v>22</v>
@@ -5724,13 +5791,13 @@
         <v>22</v>
       </c>
       <c r="AZ29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA29" t="n">
         <v>26</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -5762,82 +5829,82 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30" t="n">
         <v>36</v>
       </c>
       <c r="F30" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>37.7</v>
+        <v>37.4</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.467</v>
+        <v>0.465</v>
       </c>
       <c r="L30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M30" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.345</v>
       </c>
       <c r="O30" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="P30" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R30" t="n">
         <v>10.8</v>
       </c>
       <c r="S30" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T30" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="U30" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V30" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="W30" t="n">
         <v>7.7</v>
       </c>
       <c r="X30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y30" t="n">
         <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA30" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.9</v>
+        <v>-1.4</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5852,16 +5919,16 @@
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AK30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5870,7 +5937,7 @@
         <v>22</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR30" t="n">
         <v>16</v>
@@ -5894,13 +5961,13 @@
         <v>4</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>7</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
         <v>20</v>
@@ -5909,13 +5976,13 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" t="n">
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G31" t="n">
-        <v>0.246</v>
+        <v>0.243</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J31" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
@@ -5974,37 +6041,37 @@
         <v>14.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.334</v>
+        <v>0.332</v>
       </c>
       <c r="O31" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P31" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="R31" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T31" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="U31" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V31" t="n">
         <v>15.4</v>
       </c>
       <c r="W31" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X31" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y31" t="n">
         <v>4.8</v>
@@ -6016,22 +6083,22 @@
         <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.8</v>
+        <v>-8.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -6058,13 +6125,13 @@
         <v>24</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS31" t="n">
         <v>25</v>
@@ -6076,7 +6143,7 @@
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
         <v>5</v>
@@ -6085,16 +6152,16 @@
         <v>1</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-24-2010-11</t>
+          <t>2011-03-24</t>
         </is>
       </c>
     </row>
